--- a/uploads/strakom_unggulan.xlsx
+++ b/uploads/strakom_unggulan.xlsx
@@ -249,7 +249,7 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -268,7 +268,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
@@ -356,27 +356,87 @@
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>11-11-2023</t>
+          <t>12-06-2023</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>testing</t>
+          <t>testing 120623</t>
         </is>
       </c>
       <c r="D5" s="0" t="inlineStr">
         <is>
+          <t>Artikel</t>
+        </is>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>testing 120623</t>
+        </is>
+      </c>
+      <c r="F5" s="0" t="inlineStr">
+        <is>
+          <t>Media Cetak</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
+      <c r="A6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>14-06-2023</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>test KSD 130624sss</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
           <t>Lainnya</t>
         </is>
       </c>
-      <c r="E5" s="0" t="inlineStr">
-        <is>
-          <t>testing</t>
-        </is>
-      </c>
-      <c r="F5" s="0" t="inlineStr">
-        <is>
-          <t>Lainnya</t>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t>test KSD 130624</t>
+        </is>
+      </c>
+      <c r="F6" s="0" t="inlineStr">
+        <is>
+          <t>Rapat/Audiensi/Workshop/Bintek</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
+      <c r="A7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>12-06-2023</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>test KSD 130624</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>Foto</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>test KSD 130624ss</t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="inlineStr">
+        <is>
+          <t>Media Cetak</t>
         </is>
       </c>
     </row>
@@ -396,7 +456,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
@@ -499,7 +559,7 @@
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>testing</t>
+          <t>testingssss2222222222222</t>
         </is>
       </c>
       <c r="D5" s="0" t="inlineStr">
@@ -514,7 +574,7 @@
       </c>
       <c r="F5" s="0" t="inlineStr">
         <is>
-          <t>tetsing</t>
+          <t>ssstetsing</t>
         </is>
       </c>
       <c r="G5" s="0" t="inlineStr">
@@ -564,22 +624,22 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>Pengelolaan Sampah</t>
+          <t>testingss</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>tetsing</t>
+          <t>tetsingss</t>
         </is>
       </c>
       <c r="D7" s="0" t="inlineStr">
         <is>
-          <t>tetsing</t>
+          <t>testingsssasasa</t>
         </is>
       </c>
       <c r="E7" s="0" t="inlineStr">
         <is>
-          <t>tetsing</t>
+          <t>tetsingssasasa</t>
         </is>
       </c>
       <c r="F7" s="0" t="inlineStr">
@@ -589,7 +649,7 @@
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
-          <t>tetsing</t>
+          <t>sssss</t>
         </is>
       </c>
     </row>
@@ -599,33 +659,23 @@
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>testingss</t>
-        </is>
-      </c>
-      <c r="C8" s="0" t="inlineStr">
-        <is>
-          <t>tetsingss</t>
-        </is>
-      </c>
-      <c r="D8" s="0" t="inlineStr">
-        <is>
-          <t>testingsssasasa</t>
-        </is>
-      </c>
-      <c r="E8" s="0" t="inlineStr">
-        <is>
-          <t>tetsingssasasa</t>
-        </is>
-      </c>
-      <c r="F8" s="0" t="inlineStr">
-        <is>
-          <t>tetsing</t>
-        </is>
-      </c>
-      <c r="G8" s="0" t="inlineStr">
-        <is>
-          <t>sssss</t>
-        </is>
+          <t>testing program unggulan daerah 120623</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>222222</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>222222</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>222222</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>22</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
@@ -634,34 +684,57 @@
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>Pengelolaan Sampah</t>
-        </is>
-      </c>
-      <c r="C9" s="0" t="inlineStr">
-        <is>
-          <t>Testing Kegiatan Pengelolaan Sampah</t>
-        </is>
-      </c>
-      <c r="D9" s="0" t="inlineStr">
-        <is>
-          <t>Masyarakat umum</t>
-        </is>
-      </c>
-      <c r="E9" s="0" t="inlineStr">
-        <is>
-          <t>- Masyarakat yang belum dapat memanfaatkan jaringan internet gratis yang disediakan Pemprov DKI Jakarta
-- Masyarakat yang merasakan kualitas internet yang disediakan pemda tidak sesuai dengan harapan
-- Anggota legislatif yang melihat bahwa manfaat tidak sebanding dengan biaya yang dikeluarkan pemda"</t>
-        </is>
-      </c>
-      <c r="F9" s="0" t="inlineStr">
-        <is>
-          <t>Plt. Kepala Dinas Kominfotik Provinsi DKI Jakarta</t>
-        </is>
-      </c>
-      <c r="G9" s="0" t="inlineStr">
-        <is>
-          <t>Aditya Prana (Kabid JKD) 08128748447 Dema (Kasie ) 08161431790 Service desk +62 852-1654-1900</t>
+          <t>testing program unggulan daerah 120623</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>222222</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>222222</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>2222222</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
+      <c r="A10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>test KSD 130624</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>test KSD</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>test KSD</t>
+        </is>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>test KSD</t>
+        </is>
+      </c>
+      <c r="F10" s="0" t="inlineStr">
+        <is>
+          <t>test KSD</t>
+        </is>
+      </c>
+      <c r="G10" s="0" t="inlineStr">
+        <is>
+          <t>test KSD</t>
         </is>
       </c>
     </row>

--- a/uploads/strakom_unggulan.xlsx
+++ b/uploads/strakom_unggulan.xlsx
@@ -249,7 +249,7 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -456,7 +456,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
@@ -738,6 +738,41 @@
         </is>
       </c>
     </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
+      <c r="A11" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>ssssss</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>sssssss</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>ssssssfff</t>
+        </is>
+      </c>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t>ssssssff</t>
+        </is>
+      </c>
+      <c r="F11" s="0" t="inlineStr">
+        <is>
+          <t>sssssfff</t>
+        </is>
+      </c>
+      <c r="G11" s="0" t="inlineStr">
+        <is>
+          <t>sssssffff</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.5" right="0.5" top="1.0" bottom="1.0" header="0.5" footer="0.5"/>

--- a/uploads/strakom_unggulan.xlsx
+++ b/uploads/strakom_unggulan.xlsx
@@ -109,7 +109,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
@@ -166,8 +166,10 @@
           <t>Jenis Kegiatan</t>
         </is>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>1</v>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>Penanggulangan Banjir</t>
+        </is>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
@@ -238,18 +240,8 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>2, 4</t>
-        </is>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
-      <c r="A13" s="0" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>1</v>
+          <t>Radio, Instagram</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/uploads/strakom_unggulan.xlsx
+++ b/uploads/strakom_unggulan.xlsx
@@ -448,7 +448,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
@@ -645,126 +645,6 @@
         </is>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
-      <c r="A8" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t>testing program unggulan daerah 120623</t>
-        </is>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>222222</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>222222</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>222222</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
-      <c r="A9" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>testing program unggulan daerah 120623</t>
-        </is>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>222222</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>222222</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>2222222</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
-      <c r="A10" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t>test KSD 130624</t>
-        </is>
-      </c>
-      <c r="C10" s="0" t="inlineStr">
-        <is>
-          <t>test KSD</t>
-        </is>
-      </c>
-      <c r="D10" s="0" t="inlineStr">
-        <is>
-          <t>test KSD</t>
-        </is>
-      </c>
-      <c r="E10" s="0" t="inlineStr">
-        <is>
-          <t>test KSD</t>
-        </is>
-      </c>
-      <c r="F10" s="0" t="inlineStr">
-        <is>
-          <t>test KSD</t>
-        </is>
-      </c>
-      <c r="G10" s="0" t="inlineStr">
-        <is>
-          <t>test KSD</t>
-        </is>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
-      <c r="A11" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t>ssssss</t>
-        </is>
-      </c>
-      <c r="C11" s="0" t="inlineStr">
-        <is>
-          <t>sssssss</t>
-        </is>
-      </c>
-      <c r="D11" s="0" t="inlineStr">
-        <is>
-          <t>ssssssfff</t>
-        </is>
-      </c>
-      <c r="E11" s="0" t="inlineStr">
-        <is>
-          <t>ssssssff</t>
-        </is>
-      </c>
-      <c r="F11" s="0" t="inlineStr">
-        <is>
-          <t>sssssfff</t>
-        </is>
-      </c>
-      <c r="G11" s="0" t="inlineStr">
-        <is>
-          <t>sssssffff</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.5" right="0.5" top="1.0" bottom="1.0" header="0.5" footer="0.5"/>

--- a/uploads/strakom_unggulan.xlsx
+++ b/uploads/strakom_unggulan.xlsx
@@ -129,7 +129,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>testingss</t>
+          <t>Program Ungulan Perangkat Daerah Jakarta Barat</t>
         </is>
       </c>
     </row>
@@ -144,7 +144,7 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>Isu Prioritas</t>
+          <t>Program Unggulan Perangkat Daerah</t>
         </is>
       </c>
     </row>
@@ -156,7 +156,7 @@
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>testingss</t>
+          <t>Program Ungulan Perangkat Daerah Jakarta Barat</t>
         </is>
       </c>
     </row>
@@ -166,11 +166,7 @@
           <t>Jenis Kegiatan</t>
         </is>
       </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t>Penanggulangan Banjir</t>
-        </is>
-      </c>
+      <c r="B6" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
       <c r="A7" s="0" t="inlineStr">
@@ -180,7 +176,7 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>testingss</t>
+          <t>Pemaparan program unggulan yang akan dilaksanakan</t>
         </is>
       </c>
     </row>
@@ -192,7 +188,7 @@
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>testingsss</t>
+          <t>Program Ungulan Perangkat Daerah Jakarta Barat</t>
         </is>
       </c>
     </row>
@@ -204,7 +200,7 @@
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>testingss</t>
+          <t>Program Ungulan Perangkat Daerah Jakarta Barat</t>
         </is>
       </c>
     </row>
@@ -216,7 +212,7 @@
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>testingsss</t>
+          <t>Program Ungulan Perangkat Daerah Jakarta Barat</t>
         </is>
       </c>
     </row>
@@ -228,7 +224,7 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>Pro : testingss. Kontra : testingss xxxx hhhhhh</t>
+          <t>Pro : Program Ungulan Perangkat Daerah Jakarta Barat. Kontra : Program Ungulan Perangkat Daerah Jakarta Barat</t>
         </is>
       </c>
     </row>
@@ -240,7 +236,7 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>Radio, Instagram</t>
+          <t>Radio</t>
         </is>
       </c>
     </row>
@@ -260,7 +256,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
@@ -318,27 +314,27 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>2023-04-27</t>
+          <t>2023-09-30</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>Lorem Ipsum adalah contoh teks atau dummy dalam industri percetakan dan penataan huruf atau typesetting. Lorem Ipsum telah menjadi standar contoh teks sejak tahun 1500an, saat seorang tukang cetak yang tidak dikenal mengambil sebuah kumpulan teks dan mengacaknya untuk menjadi sebuah buku contoh huruf. Ia tidak hanya bertahan selama 5 abad, tapi juga telah beralih ke penataan huruf elektronik, tanpa ada perubahan apapun. Ia mulai dipopulerkan pada tahun 1960 dengan diluncurkannya lembaran-lembaran Letraset yang menggunakan kalimat-kalimat dari Lorem Ipsum, dan seiring munculnya perangkat lunak Desktop Publishing seperti Aldus PageMaker juga memiliki versi Lorem Ipsum.</t>
+          <t>Majukan Jakarta Barat Bersama</t>
         </is>
       </c>
       <c r="D4" s="0" t="inlineStr">
         <is>
-          <t>Lainnya</t>
+          <t>Artikel</t>
         </is>
       </c>
       <c r="E4" s="0" t="inlineStr">
         <is>
-          <t>testingssssss</t>
+          <t>Umum</t>
         </is>
       </c>
       <c r="F4" s="0" t="inlineStr">
         <is>
-          <t>Lainnya</t>
+          <t>TV</t>
         </is>
       </c>
     </row>
@@ -348,22 +344,22 @@
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>12-06-2023</t>
+          <t>2023-09-14</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>testing 120623</t>
+          <t>Jadikan Jakarta Barat Aman dan Tentram</t>
         </is>
       </c>
       <c r="D5" s="0" t="inlineStr">
         <is>
-          <t>Artikel</t>
+          <t>Infografis</t>
         </is>
       </c>
       <c r="E5" s="0" t="inlineStr">
         <is>
-          <t>testing 120623</t>
+          <t>Umum</t>
         </is>
       </c>
       <c r="F5" s="0" t="inlineStr">
@@ -378,27 +374,27 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>14-06-2023</t>
+          <t>2023-09-08</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>test KSD 130624sss</t>
+          <t>Kebersihan adalah sebagian dari iman, jadikan jakarta barat bersih</t>
         </is>
       </c>
       <c r="D6" s="0" t="inlineStr">
         <is>
-          <t>Lainnya</t>
+          <t>Video </t>
         </is>
       </c>
       <c r="E6" s="0" t="inlineStr">
         <is>
-          <t>test KSD 130624</t>
+          <t>Umum</t>
         </is>
       </c>
       <c r="F6" s="0" t="inlineStr">
         <is>
-          <t>Rapat/Audiensi/Workshop/Bintek</t>
+          <t>Radio</t>
         </is>
       </c>
     </row>
@@ -408,27 +404,387 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>12-06-2023</t>
+          <t>2023-09-10</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>test KSD 130624</t>
+          <t>Jakarta Barat Ramah</t>
         </is>
       </c>
       <c r="D7" s="0" t="inlineStr">
         <is>
+          <t>Infografis</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>Umum</t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="inlineStr">
+        <is>
+          <t>Media Cetak</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
+      <c r="A8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>Jakarta Barat Displin</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>Video </t>
+        </is>
+      </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>Umum</t>
+        </is>
+      </c>
+      <c r="F8" s="0" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
+      <c r="A9" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>Jakarta Barat Unggul</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>Aktivitas</t>
+        </is>
+      </c>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t>Umum</t>
+        </is>
+      </c>
+      <c r="F9" s="0" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
+      <c r="A10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>Jakarta Barat Kreatif</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>Media Luar Ruang</t>
+        </is>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>Umum</t>
+        </is>
+      </c>
+      <c r="F10" s="0" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
+      <c r="A11" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>Jakarta Barat Terbaik</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
           <t>Foto</t>
         </is>
       </c>
-      <c r="E7" s="0" t="inlineStr">
-        <is>
-          <t>test KSD 130624ss</t>
-        </is>
-      </c>
-      <c r="F7" s="0" t="inlineStr">
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t>Umum</t>
+        </is>
+      </c>
+      <c r="F11" s="0" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
+      <c r="A12" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>Jakarta Barat Amanah</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>Berita</t>
+        </is>
+      </c>
+      <c r="E12" s="0" t="inlineStr">
+        <is>
+          <t>Umum</t>
+        </is>
+      </c>
+      <c r="F12" s="0" t="inlineStr">
+        <is>
+          <t>Youtube</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
+      <c r="A13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>Jakarta Barat Bersih</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>Video </t>
+        </is>
+      </c>
+      <c r="E13" s="0" t="inlineStr">
+        <is>
+          <t>Umum</t>
+        </is>
+      </c>
+      <c r="F13" s="0" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
+      <c r="A14" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>Jadikan Jakarta Barat Aman dan Tentram</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>Press Release</t>
+        </is>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>Umum</t>
+        </is>
+      </c>
+      <c r="F14" s="0" t="inlineStr">
+        <is>
+          <t>Youtube</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
+      <c r="A15" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>Jadikan Jakarta Barat Aman dan Tentram</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>Motiongrafis</t>
+        </is>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>Umum</t>
+        </is>
+      </c>
+      <c r="F15" s="0" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
+      <c r="A16" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>Jadikan Jakarta Barat Aman dan Tentram</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>Foto</t>
+        </is>
+      </c>
+      <c r="E16" s="0" t="inlineStr">
+        <is>
+          <t>Umum</t>
+        </is>
+      </c>
+      <c r="F16" s="0" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
+      <c r="A17" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>Jadikan Jakarta Barat Aman dan Tentram</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>Berita</t>
+        </is>
+      </c>
+      <c r="E17" s="0" t="inlineStr">
+        <is>
+          <t>Umum</t>
+        </is>
+      </c>
+      <c r="F17" s="0" t="inlineStr">
         <is>
           <t>Media Cetak</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
+      <c r="A18" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>Jadikan Jakarta Barat Aman dan Tentram</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>Video </t>
+        </is>
+      </c>
+      <c r="E18" s="0" t="inlineStr">
+        <is>
+          <t>Umum</t>
+        </is>
+      </c>
+      <c r="F18" s="0" t="inlineStr">
+        <is>
+          <t>Media Cetak</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
+      <c r="A19" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>Jadikan Jakarata Barat Aman</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t>Video </t>
+        </is>
+      </c>
+      <c r="E19" s="0" t="inlineStr">
+        <is>
+          <t>Umum</t>
+        </is>
+      </c>
+      <c r="F19" s="0" t="inlineStr">
+        <is>
+          <t>Instagram</t>
         </is>
       </c>
     </row>
@@ -448,7 +804,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
@@ -511,32 +867,32 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>testingss</t>
+          <t>Program Ungulan Perangkat Daerah Jakarta Barat</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>tetsing</t>
+          <t>Jadikan Jakarta Barat Aman dan Tentram</t>
         </is>
       </c>
       <c r="D4" s="0" t="inlineStr">
         <is>
-          <t>tetsting</t>
+          <t>Jadikan Jakarta Barat Aman dan Tentram</t>
         </is>
       </c>
       <c r="E4" s="0" t="inlineStr">
         <is>
-          <t>tetsing</t>
+          <t>Jadikan Jakarta Barat Aman dan Tentram</t>
         </is>
       </c>
       <c r="F4" s="0" t="inlineStr">
         <is>
-          <t>tetsing</t>
+          <t>Jadikan Jakarta Barat Aman dan Tentram</t>
         </is>
       </c>
       <c r="G4" s="0" t="inlineStr">
         <is>
-          <t>tetsing</t>
+          <t>Jadikan Jakarta Barat Aman dan Tentram</t>
         </is>
       </c>
     </row>
@@ -546,32 +902,32 @@
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>testingss</t>
+          <t>Program Ungulan Perangkat Daerah Jakarta Barat</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>testingssss2222222222222</t>
+          <t>Program Jakarta Barat Maju</t>
         </is>
       </c>
       <c r="D5" s="0" t="inlineStr">
         <is>
-          <t>tetsing</t>
+          <t>Program Jakarta Barat Maju</t>
         </is>
       </c>
       <c r="E5" s="0" t="inlineStr">
         <is>
-          <t>tetsing</t>
+          <t>Program Jakarta Barat Maju</t>
         </is>
       </c>
       <c r="F5" s="0" t="inlineStr">
         <is>
-          <t>ssstetsing</t>
+          <t>Program Jakarta Barat Maju</t>
         </is>
       </c>
       <c r="G5" s="0" t="inlineStr">
         <is>
-          <t>tetsing</t>
+          <t>Program Jakarta Barat Maju</t>
         </is>
       </c>
     </row>
@@ -581,67 +937,32 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>testingss</t>
+          <t>Program Ungulan Perangkat Daerah Jakarta Barat</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>tetsing</t>
+          <t>aas</t>
         </is>
       </c>
       <c r="D6" s="0" t="inlineStr">
         <is>
-          <t>tetsing</t>
+          <t>sss</t>
         </is>
       </c>
       <c r="E6" s="0" t="inlineStr">
         <is>
-          <t>tetsing</t>
+          <t>aaa</t>
         </is>
       </c>
       <c r="F6" s="0" t="inlineStr">
         <is>
-          <t>testing</t>
+          <t>sss</t>
         </is>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>tetsing</t>
-        </is>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
-      <c r="A7" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>testingss</t>
-        </is>
-      </c>
-      <c r="C7" s="0" t="inlineStr">
-        <is>
-          <t>tetsingss</t>
-        </is>
-      </c>
-      <c r="D7" s="0" t="inlineStr">
-        <is>
-          <t>testingsssasasa</t>
-        </is>
-      </c>
-      <c r="E7" s="0" t="inlineStr">
-        <is>
-          <t>tetsingssasasa</t>
-        </is>
-      </c>
-      <c r="F7" s="0" t="inlineStr">
-        <is>
-          <t>tetsing</t>
-        </is>
-      </c>
-      <c r="G7" s="0" t="inlineStr">
-        <is>
-          <t>sssss</t>
+          <t>aaa</t>
         </is>
       </c>
     </row>
